--- a/TareasALG/GraficasT5.xlsx
+++ b/TareasALG/GraficasT5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pere\Documents\GitHub\ALT-2020\TareasALG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C38DFB55-EC4B-40F0-A1AD-9F3C91FD03E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485C3255-BA26-4823-942F-D44BEF63EB2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBC7C0FC-9803-46D4-89C8-0111A16747BB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="9">
   <si>
     <t>thr = 1</t>
   </si>
@@ -3002,6 +3002,1860 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1769119039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>levensthein</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$53:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$53:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.578125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.796875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.796875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79FB-4C24-966E-2F43C99451DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>intermediate </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$53:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$53:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.140625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.328125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.578125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.734375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.734375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.765625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-79FB-4C24-966E-2F43C99451DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>restricted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$53:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$53:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.328125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.109375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.53125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-79FB-4C24-966E-2F43C99451DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trie levenshtein</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$53:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$53:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.828125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.671875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.015625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.96875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.96875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-79FB-4C24-966E-2F43C99451DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="297350351"/>
+        <c:axId val="297337039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="297350351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297337039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297337039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297350351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>levensthein</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$63:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$63:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.359375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.828125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.328125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.03125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.859375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D46A-4995-B162-6AC7C75B587B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>intermediate </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$63:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$63:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.09375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.078125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D46A-4995-B162-6AC7C75B587B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>restricted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$63:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$63:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.609375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.265625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.96875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.828125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.953125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.84375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D46A-4995-B162-6AC7C75B587B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trie levenshtein</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$63:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$63:$E$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.640625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.109375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.515625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.90625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.921875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D46A-4995-B162-6AC7C75B587B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="299718911"/>
+        <c:axId val="299714751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="299718911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299714751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="299714751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299718911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>levensthein</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$73:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$73:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.546875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.96875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.84375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.84375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.859375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06AB-4DC8-94CE-D0A7D4168833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>intermediate </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$73:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$73:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.609375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.015625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.40625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.359375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.421875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.359375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06AB-4DC8-94CE-D0A7D4168833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>restricted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$73:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$73:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.796875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.765625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.453125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.015625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.859375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.96875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.953125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06AB-4DC8-94CE-D0A7D4168833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trie levenshtein</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$73:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$73:$E$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.828125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.53125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.28125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.765625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.90625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.765625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06AB-4DC8-94CE-D0A7D4168833}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="297329967"/>
+        <c:axId val="297335375"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="297329967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297335375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297335375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297329967"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3288,6 +5142,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5353,6 +7327,1554 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6050,6 +9572,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>443752</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>282387</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81BD363-3160-40E5-9CB3-327A536BCD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>497540</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914C108C-9B59-47F2-A1AE-E112D11F9982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542366</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB0D959-587A-42CC-B23B-849F9766B564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6350,10 +9980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B1108F-A29A-4C9E-9DE0-3B5079AE1723}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7144,6 +10774,473 @@
         <v>2.203125</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.15625</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.140625</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.328125</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.328125</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.671875</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.828125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.578125</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.578125</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.109375</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.671875</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.703125</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.375</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1.671875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.5625</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2.015625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.734375</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.5625</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1.96875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>35000</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.796875</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.734375</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.5625</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>40000</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.796875</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.765625</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.53125</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1.96875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.359375</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.390625</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.609375</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.640625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.828125</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1.265625</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1.328125</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1.3125</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1.96875</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2.109375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1.625</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1.8125</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2.625</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2.515625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2.03125</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2.09375</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2.875</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2.90625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1.875</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2.0625</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2.828125</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2.9375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>35000</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1.9375</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2.953125</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>40000</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1.859375</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2.078125</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2.84375</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2.921875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.546875</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.609375</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1.375</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1.3125</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1.796875</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1.828125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1.96875</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2.125</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2.765625</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2.53125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2.4375</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3.015625</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3.453125</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3.28125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>25000</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2.875</v>
+      </c>
+      <c r="C77" s="3">
+        <v>3.40625</v>
+      </c>
+      <c r="D77" s="3">
+        <v>4.015625</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3.8125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2.84375</v>
+      </c>
+      <c r="C78" s="3">
+        <v>3.359375</v>
+      </c>
+      <c r="D78" s="3">
+        <v>3.859375</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3.765625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>35000</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2.84375</v>
+      </c>
+      <c r="C79" s="3">
+        <v>3.421875</v>
+      </c>
+      <c r="D79" s="3">
+        <v>3.96875</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3.90625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>40000</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2.859375</v>
+      </c>
+      <c r="C80" s="3">
+        <v>3.359375</v>
+      </c>
+      <c r="D80" s="3">
+        <v>3.953125</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3.765625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
